--- a/data_year/zb/综合/人均主要工农业产品产量.xlsx
+++ b/data_year/zb/综合/人均主要工农业产品产量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1147 +518,646 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129.0940842438</v>
+        <v>151.7629073675</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0962578555</v>
+        <v>2.5629322608</v>
       </c>
       <c r="D2" t="n">
-        <v>1073.6192674901</v>
+        <v>3145.0581406214</v>
       </c>
       <c r="E2" t="n">
-        <v>21.938074439</v>
+        <v>59.8039179042</v>
       </c>
       <c r="F2" t="n">
-        <v>19.6962725073</v>
+        <v>73.5037246628</v>
       </c>
       <c r="G2" t="n">
-        <v>472.816983396</v>
+        <v>1406.8211601213</v>
       </c>
       <c r="H2" t="n">
-        <v>101.7704897259</v>
+        <v>476.360557821</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2033627821</v>
+        <v>19.2330895077764</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4984837385</v>
+        <v>4.3136492888</v>
       </c>
       <c r="K2" t="n">
-        <v>29.35</v>
+        <v>40.2</v>
       </c>
       <c r="L2" t="n">
-        <v>49.3024328294968</v>
+        <v>150.222726482561</v>
       </c>
       <c r="M2" t="n">
-        <v>23.4019017776176</v>
+        <v>23.5984311864</v>
       </c>
       <c r="N2" t="n">
-        <v>37.57</v>
+        <v>46.1664183211</v>
       </c>
       <c r="O2" t="n">
-        <v>366.0373264061</v>
+        <v>417.9644096795</v>
       </c>
       <c r="P2" t="n">
-        <v>60.4709201715447</v>
+        <v>84.4981169669221</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5411845768208799</v>
+        <v>1.10268631723736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.9135511263</v>
+        <v>150.832877954849</v>
       </c>
       <c r="C3" t="n">
-        <v>1.1569968943</v>
+        <v>2.79844018928875</v>
       </c>
       <c r="D3" t="n">
-        <v>1164.2898140504</v>
+        <v>3504.01216325226</v>
       </c>
       <c r="E3" t="n">
-        <v>22.8014309864</v>
+        <v>60.5292799072143</v>
       </c>
       <c r="F3" t="n">
-        <v>29.6974485985</v>
+        <v>81.86322289011071</v>
       </c>
       <c r="G3" t="n">
-        <v>519.7467468648</v>
+        <v>1560.74644897716</v>
       </c>
       <c r="H3" t="n">
-        <v>119.2234933365</v>
+        <v>509.490905441122</v>
       </c>
       <c r="I3" t="n">
-        <v>5.9808939733</v>
+        <v>20.2066117238585</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.8466059293078</v>
       </c>
       <c r="K3" t="n">
-        <v>29.85</v>
+        <v>41.531100833111</v>
       </c>
       <c r="L3" t="n">
-        <v>52.3489405197154</v>
+        <v>156.373331380355</v>
       </c>
       <c r="M3" t="n">
-        <v>22.5</v>
+        <v>23.8841936428048</v>
       </c>
       <c r="N3" t="n">
-        <v>37.99</v>
+        <v>45.5121598294838</v>
       </c>
       <c r="O3" t="n">
-        <v>355.888430239415</v>
+        <v>437.530095501126</v>
       </c>
       <c r="P3" t="n">
-        <v>68.0514843810198</v>
+        <v>86.77068500988371</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.551715217989543</v>
+        <v>1.2076315311763</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.4279912527</v>
+        <v>153.211883118322</v>
       </c>
       <c r="C4" t="n">
-        <v>1.2108718369</v>
+        <v>2.91318057288859</v>
       </c>
       <c r="D4" t="n">
-        <v>1291.783817557</v>
+        <v>3683.05259970905</v>
       </c>
       <c r="E4" t="n">
-        <v>25.1788503593</v>
+        <v>62.6898736514079</v>
       </c>
       <c r="F4" t="n">
-        <v>36.449468916</v>
+        <v>80.9084397315</v>
       </c>
       <c r="G4" t="n">
-        <v>566.2293033427</v>
+        <v>1631.85431881789</v>
       </c>
       <c r="H4" t="n">
-        <v>142.4290065604</v>
+        <v>534.549952370051</v>
       </c>
       <c r="I4" t="n">
-        <v>6.638550453</v>
+        <v>22.0353126223056</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8395954076851</v>
+        <v>4.87968490794841</v>
       </c>
       <c r="K4" t="n">
-        <v>30.89</v>
+        <v>40.4801097896029</v>
       </c>
       <c r="L4" t="n">
-        <v>54.2953787878788</v>
+        <v>163.556575228968</v>
       </c>
       <c r="M4" t="n">
-        <v>22.6273424867229</v>
+        <v>24.2625872818005</v>
       </c>
       <c r="N4" t="n">
-        <v>38.49</v>
+        <v>47.5478127631516</v>
       </c>
       <c r="O4" t="n">
-        <v>356.964620431115</v>
+        <v>452.097746539792</v>
       </c>
       <c r="P4" t="n">
-        <v>80.3864250624805</v>
+        <v>92.1881916563633</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5821415182755389</v>
+        <v>1.32506051329131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131.6359826141</v>
+        <v>153.984991637569</v>
       </c>
       <c r="C5" t="n">
-        <v>1.4241685036</v>
+        <v>2.915113993134</v>
       </c>
       <c r="D5" t="n">
-        <v>1482.905153679</v>
+        <v>3984.35711980282</v>
       </c>
       <c r="E5" t="n">
-        <v>27.4386836386</v>
+        <v>65.8424048590124</v>
       </c>
       <c r="F5" t="n">
-        <v>37.6383886992</v>
+        <v>83.0599160822746</v>
       </c>
       <c r="G5" t="n">
-        <v>669.109826141</v>
+        <v>1774.6243508113</v>
       </c>
       <c r="H5" t="n">
-        <v>172.5675256132</v>
+        <v>596.475235468443</v>
       </c>
       <c r="I5" t="n">
-        <v>7.6341198386</v>
+        <v>23.4734896276518</v>
       </c>
       <c r="J5" t="n">
-        <v>3.77189459795095</v>
+        <v>4.60782377142269</v>
       </c>
       <c r="K5" t="n">
-        <v>31.64</v>
+        <v>42.0126378299634</v>
       </c>
       <c r="L5" t="n">
-        <v>112.677829866501</v>
+        <v>167.588318724119</v>
       </c>
       <c r="M5" t="n">
-        <v>21.8177615647314</v>
+        <v>24.5591385229307</v>
       </c>
       <c r="N5" t="n">
-        <v>39.5</v>
+        <v>48.5758850953152</v>
       </c>
       <c r="O5" t="n">
-        <v>334.286915243713</v>
+        <v>462.487927523984</v>
       </c>
       <c r="P5" t="n">
-        <v>74.8342587705681</v>
+        <v>92.49441091286231</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.596196833281589</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135.6968539629</v>
+        <v>154.11864184392</v>
       </c>
       <c r="C6" t="n">
-        <v>1.6377221997</v>
+        <v>2.82390331374922</v>
       </c>
       <c r="D6" t="n">
-        <v>1699.9857261347</v>
+        <v>4223.79615995801</v>
       </c>
       <c r="E6" t="n">
-        <v>37.1969214745</v>
+        <v>65.14367355269491</v>
       </c>
       <c r="F6" t="n">
-        <v>41.766641591</v>
+        <v>85.9110988001691</v>
       </c>
       <c r="G6" t="n">
-        <v>745.959840287</v>
+        <v>1816.563497733</v>
       </c>
       <c r="H6" t="n">
-        <v>218.2828154235</v>
+        <v>599.409779423556</v>
       </c>
       <c r="I6" t="n">
-        <v>9.9634666204</v>
+        <v>24.6322511043401</v>
       </c>
       <c r="J6" t="n">
-        <v>4.87896887140019</v>
+        <v>4.59189530426544</v>
       </c>
       <c r="K6" t="n">
-        <v>32.76</v>
+        <v>43.6039974127338</v>
       </c>
       <c r="L6" t="n">
-        <v>118.364153309029</v>
+        <v>170.806603155874</v>
       </c>
       <c r="M6" t="n">
-        <v>23.6553401616419</v>
+        <v>24.5792138351202</v>
       </c>
       <c r="N6" t="n">
-        <v>40.39</v>
+        <v>49.8681969830752</v>
       </c>
       <c r="O6" t="n">
-        <v>362.224017900199</v>
+        <v>466.263518450175</v>
       </c>
       <c r="P6" t="n">
-        <v>73.8433470285284</v>
+        <v>88.6095132132703</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.644431070732789</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>139.1041788114</v>
+        <v>155.491006377459</v>
       </c>
       <c r="C7" t="n">
-        <v>1.8141518117</v>
+        <v>2.71549287608888</v>
       </c>
       <c r="D7" t="n">
-        <v>1917.7890958181</v>
+        <v>4213.88619135275</v>
       </c>
       <c r="E7" t="n">
-        <v>37.1544503421</v>
+        <v>64.68627252040061</v>
       </c>
       <c r="F7" t="n">
-        <v>47.597797073</v>
+        <v>85.101169683881</v>
       </c>
       <c r="G7" t="n">
-        <v>819.844675237</v>
+        <v>1709.73019001928</v>
       </c>
       <c r="H7" t="n">
-        <v>270.9475961096</v>
+        <v>582.540982418506</v>
       </c>
       <c r="I7" t="n">
-        <v>11.1261620593</v>
+        <v>25.6402823474845</v>
       </c>
       <c r="J7" t="n">
-        <v>4.382979937</v>
+        <v>4.28115329317232</v>
       </c>
       <c r="K7" t="n">
-        <v>33.9</v>
+        <v>44.9009226236847</v>
       </c>
       <c r="L7" t="n">
-        <v>123.646909612493</v>
+        <v>178.852549649308</v>
       </c>
       <c r="M7" t="n">
-        <v>23.6027294051</v>
+        <v>24.5710918881439</v>
       </c>
       <c r="N7" t="n">
-        <v>41.98</v>
+        <v>48.4524042355402</v>
       </c>
       <c r="O7" t="n">
-        <v>371.2621609296</v>
+        <v>478.746206379236</v>
       </c>
       <c r="P7" t="n">
-        <v>72.4995382444083</v>
+        <v>81.7900710397432</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7170690715797871</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>140.9327851596</v>
+        <v>143.887217806729</v>
       </c>
       <c r="C8" t="n">
-        <v>1.960100685</v>
+        <v>2.45786466252099</v>
       </c>
       <c r="D8" t="n">
-        <v>2185.8751201355</v>
+        <v>4419.37180697368</v>
       </c>
       <c r="E8" t="n">
-        <v>45.6552912999</v>
+        <v>65.3376951844299</v>
       </c>
       <c r="F8" t="n">
-        <v>52.348705588</v>
+        <v>88.7686177303483</v>
       </c>
       <c r="G8" t="n">
-        <v>943.3607420177</v>
+        <v>1736.79720995251</v>
       </c>
       <c r="H8" t="n">
-        <v>319.7117511556</v>
+        <v>581.93919829369</v>
       </c>
       <c r="I8" t="n">
-        <v>13.2946865799</v>
+        <v>26.8960001152912</v>
       </c>
       <c r="J8" t="n">
-        <v>5.7457445366</v>
+        <v>3.84989328701526</v>
       </c>
       <c r="K8" t="n">
-        <v>34.96</v>
+        <v>45.8190645828545</v>
       </c>
       <c r="L8" t="n">
-        <v>130.447799591158</v>
+        <v>177.020823251275</v>
       </c>
       <c r="M8" t="n">
-        <v>20.1393931850457</v>
+        <v>24.4997373398873</v>
       </c>
       <c r="N8" t="n">
-        <v>42.7789801043</v>
+        <v>46.7037018438412</v>
       </c>
       <c r="O8" t="n">
-        <v>379.8891475488</v>
+        <v>475.889795961378</v>
       </c>
       <c r="P8" t="n">
-        <v>79.78497480302489</v>
+        <v>81.0641405109583</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.784171103415661</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>141.3766755066</v>
+        <v>137.16088212059</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0941821934</v>
+        <v>2.52396658107813</v>
       </c>
       <c r="D9" t="n">
-        <v>2490.0146826165</v>
+        <v>4730.25071353624</v>
       </c>
       <c r="E9" t="n">
-        <v>51.2381581094</v>
+        <v>49.4945262728161</v>
       </c>
       <c r="F9" t="n">
-        <v>59.128300269</v>
+        <v>89.8286438693181</v>
       </c>
       <c r="G9" t="n">
-        <v>1032.8461891591</v>
+        <v>1669.39948360389</v>
       </c>
       <c r="H9" t="n">
-        <v>371.2675992215</v>
+        <v>623.643851412569</v>
       </c>
       <c r="I9" t="n">
-        <v>14.860337331</v>
+        <v>22.8574395777155</v>
       </c>
       <c r="J9" t="n">
-        <v>5.7646359468</v>
+        <v>4.04846302324499</v>
       </c>
       <c r="K9" t="n">
-        <v>36.02</v>
+        <v>46.0344544357229</v>
       </c>
       <c r="L9" t="n">
-        <v>133.997719990311</v>
+        <v>182.068573751461</v>
       </c>
       <c r="M9" t="n">
-        <v>21.1474543203</v>
+        <v>24.8904249913683</v>
       </c>
       <c r="N9" t="n">
-        <v>40.3658743751</v>
+        <v>46.8355243156327</v>
       </c>
       <c r="O9" t="n">
-        <v>382.5360672077</v>
+        <v>473.85775159534</v>
       </c>
       <c r="P9" t="n">
-        <v>91.679872656217</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.884371451226776</v>
-      </c>
+        <v>82.0750238042973</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143.7654332638</v>
+        <v>134.965499443953</v>
       </c>
       <c r="C10" t="n">
-        <v>2.1918202098</v>
+        <v>2.63623142946762</v>
       </c>
       <c r="D10" t="n">
-        <v>2617.196175608</v>
+        <v>5108.59519803815</v>
       </c>
       <c r="E10" t="n">
-        <v>54.5840237647</v>
+        <v>49.7925518263994</v>
       </c>
       <c r="F10" t="n">
-        <v>63.4451989386</v>
+        <v>85.87334968205541</v>
       </c>
       <c r="G10" t="n">
-        <v>1074.6626857559</v>
+        <v>1594.06897829992</v>
       </c>
       <c r="H10" t="n">
-        <v>379.7649199225</v>
+        <v>662.293193418689</v>
       </c>
       <c r="I10" t="n">
-        <v>15.5189018143</v>
+        <v>21.9487296472668</v>
       </c>
       <c r="J10" t="n">
-        <v>5.4597955874</v>
+        <v>4.35054594513673</v>
       </c>
       <c r="K10" t="n">
-        <v>36.9575368681</v>
+        <v>45.948554514341</v>
       </c>
       <c r="L10" t="n">
-        <v>137.991377674368</v>
+        <v>184.446045913036</v>
       </c>
       <c r="M10" t="n">
-        <v>22.9249275596</v>
+        <v>24.4759558285095</v>
       </c>
       <c r="N10" t="n">
-        <v>42.9767673723</v>
+        <v>46.412560869176</v>
       </c>
       <c r="O10" t="n">
-        <v>403.3826813475</v>
+        <v>468.99837449751</v>
       </c>
       <c r="P10" t="n">
-        <v>98.183781044612</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.95</v>
-      </c>
+        <v>85.7123072224763</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>142.3385364241</v>
+        <v>136.124328624857</v>
       </c>
       <c r="C11" t="n">
-        <v>2.3401545904</v>
+        <v>2.73202888307186</v>
       </c>
       <c r="D11" t="n">
-        <v>2790.3272088097</v>
+        <v>5330.10452887419</v>
       </c>
       <c r="E11" t="n">
-        <v>56.5945044544</v>
+        <v>39.4381008136498</v>
       </c>
       <c r="F11" t="n">
-        <v>67.34319366619999</v>
+        <v>88.9031529005608</v>
       </c>
       <c r="G11" t="n">
-        <v>1234.9036251371</v>
+        <v>1665.29179599399</v>
       </c>
       <c r="H11" t="n">
-        <v>429.8050718868</v>
+        <v>707.1017199421771</v>
       </c>
       <c r="I11" t="n">
-        <v>17.0248478612</v>
+        <v>20.0828985363116</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6841620063</v>
+        <v>4.18330809919889</v>
       </c>
       <c r="K11" t="n">
-        <v>38.4293282158</v>
+        <v>45.9574038352434</v>
       </c>
       <c r="L11" t="n">
-        <v>143.425847018798</v>
+        <v>196</v>
       </c>
       <c r="M11" t="n">
-        <v>23.582295983</v>
+        <v>24.8125927763906</v>
       </c>
       <c r="N11" t="n">
-        <v>44.7539800557</v>
+        <v>38.3673992652474</v>
       </c>
       <c r="O11" t="n">
-        <v>405.1865162463</v>
+        <v>471.565121100594</v>
       </c>
       <c r="P11" t="n">
-        <v>88.2389440995737</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.020568333759</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>151.7629073675</v>
+        <v>138.026057685494</v>
       </c>
       <c r="C12" t="n">
-        <v>2.5629322608</v>
+        <v>2.76555179916792</v>
       </c>
       <c r="D12" t="n">
-        <v>3145.0581406214</v>
+        <v>5512.762778322</v>
       </c>
       <c r="E12" t="n">
-        <v>59.8039179042</v>
+        <v>32.5412798525973</v>
       </c>
       <c r="F12" t="n">
-        <v>73.5037246628</v>
+        <v>90.005192289703</v>
       </c>
       <c r="G12" t="n">
-        <v>1406.8211601213</v>
+        <v>1697.05070579524</v>
       </c>
       <c r="H12" t="n">
-        <v>476.360557821</v>
+        <v>754.565063985543</v>
       </c>
       <c r="I12" t="n">
-        <v>19.2330895077764</v>
+        <v>18.5548823683651</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3136492888</v>
+        <v>4.18857574726809</v>
       </c>
       <c r="K12" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>150.222726482561</v>
-      </c>
+        <v>46.3771981134748</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>23.5984311864</v>
+        <v>25.4156581295443</v>
       </c>
       <c r="N12" t="n">
-        <v>46.1664183211</v>
+        <v>37.3770302195481</v>
       </c>
       <c r="O12" t="n">
-        <v>417.9644096795</v>
-      </c>
-      <c r="P12" t="n">
-        <v>84.4981169669221</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.10268631723736</v>
-      </c>
+        <v>474.446545469128</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.832877954849</v>
+        <v>140.81</v>
       </c>
       <c r="C13" t="n">
-        <v>2.79844018928875</v>
+        <v>2.92</v>
       </c>
       <c r="D13" t="n">
-        <v>3504.01216325226</v>
+        <v>6042.54</v>
       </c>
       <c r="E13" t="n">
-        <v>60.5292799072143</v>
+        <v>35.54</v>
       </c>
       <c r="F13" t="n">
-        <v>81.86322289011071</v>
+        <v>96.18000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>1560.74644897716</v>
+        <v>1683.17</v>
       </c>
       <c r="H13" t="n">
-        <v>509.490905441122</v>
+        <v>732.99</v>
       </c>
       <c r="I13" t="n">
-        <v>20.2066117238585</v>
+        <v>20.35</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8466059293078</v>
+        <v>4.05769975939893</v>
       </c>
       <c r="K13" t="n">
-        <v>41.531100833111</v>
-      </c>
-      <c r="L13" t="n">
-        <v>156.373331380355</v>
-      </c>
+        <v>47.3696118553343</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>23.8841936428048</v>
+        <v>25.5825309977626</v>
       </c>
       <c r="N13" t="n">
-        <v>45.5121598294838</v>
+        <v>46.0754987136228</v>
       </c>
       <c r="O13" t="n">
-        <v>437.530095501126</v>
-      </c>
-      <c r="P13" t="n">
-        <v>86.77068500988371</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.2076315311763</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>153.211883118322</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.91318057288859</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3683.05259970905</v>
-      </c>
-      <c r="E14" t="n">
-        <v>62.6898736514079</v>
-      </c>
-      <c r="F14" t="n">
-        <v>80.9084397315</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1631.85431881789</v>
-      </c>
-      <c r="H14" t="n">
-        <v>534.549952370051</v>
-      </c>
-      <c r="I14" t="n">
-        <v>22.0353126223056</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.87968490794841</v>
-      </c>
-      <c r="K14" t="n">
-        <v>40.4801097896029</v>
-      </c>
-      <c r="L14" t="n">
-        <v>163.556575228968</v>
-      </c>
-      <c r="M14" t="n">
-        <v>24.2625872818005</v>
-      </c>
-      <c r="N14" t="n">
-        <v>47.5478127631516</v>
-      </c>
-      <c r="O14" t="n">
-        <v>452.097746539792</v>
-      </c>
-      <c r="P14" t="n">
-        <v>92.1881916563633</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.32506051329131</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>153.984991637569</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.915113993134</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3984.35711980282</v>
-      </c>
-      <c r="E15" t="n">
-        <v>65.8424048590124</v>
-      </c>
-      <c r="F15" t="n">
-        <v>83.0599160822746</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1774.6243508113</v>
-      </c>
-      <c r="H15" t="n">
-        <v>596.475235468443</v>
-      </c>
-      <c r="I15" t="n">
-        <v>23.4734896276518</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.60782377142269</v>
-      </c>
-      <c r="K15" t="n">
-        <v>42.0126378299634</v>
-      </c>
-      <c r="L15" t="n">
-        <v>167.588318724119</v>
-      </c>
-      <c r="M15" t="n">
-        <v>24.5591385229307</v>
-      </c>
-      <c r="N15" t="n">
-        <v>48.5758850953152</v>
-      </c>
-      <c r="O15" t="n">
-        <v>462.487927523984</v>
-      </c>
-      <c r="P15" t="n">
-        <v>92.49441091286231</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>154.11864184392</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.82390331374922</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4223.79615995801</v>
-      </c>
-      <c r="E16" t="n">
-        <v>65.14367355269491</v>
-      </c>
-      <c r="F16" t="n">
-        <v>85.9110988001691</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1816.563497733</v>
-      </c>
-      <c r="H16" t="n">
-        <v>599.409779423556</v>
-      </c>
-      <c r="I16" t="n">
-        <v>24.6322511043401</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.59189530426544</v>
-      </c>
-      <c r="K16" t="n">
-        <v>43.6039974127338</v>
-      </c>
-      <c r="L16" t="n">
-        <v>170.806603155874</v>
-      </c>
-      <c r="M16" t="n">
-        <v>24.5792138351202</v>
-      </c>
-      <c r="N16" t="n">
-        <v>49.8681969830752</v>
-      </c>
-      <c r="O16" t="n">
-        <v>466.263518450175</v>
-      </c>
-      <c r="P16" t="n">
-        <v>88.6095132132703</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>155.491006377459</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.71549287608888</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4213.88619135275</v>
-      </c>
-      <c r="E17" t="n">
-        <v>64.68627252040061</v>
-      </c>
-      <c r="F17" t="n">
-        <v>85.101169683881</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1709.73019001928</v>
-      </c>
-      <c r="H17" t="n">
-        <v>582.540982418506</v>
-      </c>
-      <c r="I17" t="n">
-        <v>25.6402823474845</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.28115329317232</v>
-      </c>
-      <c r="K17" t="n">
-        <v>44.9009226236847</v>
-      </c>
-      <c r="L17" t="n">
-        <v>178.852549649308</v>
-      </c>
-      <c r="M17" t="n">
-        <v>24.5710918881439</v>
-      </c>
-      <c r="N17" t="n">
-        <v>48.4524042355402</v>
-      </c>
-      <c r="O17" t="n">
-        <v>478.746206379236</v>
-      </c>
-      <c r="P17" t="n">
-        <v>81.7900710397432</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>143.887217806729</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.45786466252099</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4419.37180697368</v>
-      </c>
-      <c r="E18" t="n">
-        <v>65.3376951844299</v>
-      </c>
-      <c r="F18" t="n">
-        <v>88.7686177303483</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1736.79720995251</v>
-      </c>
-      <c r="H18" t="n">
-        <v>581.93919829369</v>
-      </c>
-      <c r="I18" t="n">
-        <v>26.8960001152912</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.84989328701526</v>
-      </c>
-      <c r="K18" t="n">
-        <v>45.8190645828545</v>
-      </c>
-      <c r="L18" t="n">
-        <v>177.020823251275</v>
-      </c>
-      <c r="M18" t="n">
-        <v>24.4997373398873</v>
-      </c>
-      <c r="N18" t="n">
-        <v>46.7037018438412</v>
-      </c>
-      <c r="O18" t="n">
-        <v>475.889795961378</v>
-      </c>
-      <c r="P18" t="n">
-        <v>81.0641405109583</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>137.16088212059</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.52396658107813</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4730.25071353624</v>
-      </c>
-      <c r="E19" t="n">
-        <v>49.4945262728161</v>
-      </c>
-      <c r="F19" t="n">
-        <v>89.8286438693181</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1669.39948360389</v>
-      </c>
-      <c r="H19" t="n">
-        <v>623.643851412569</v>
-      </c>
-      <c r="I19" t="n">
-        <v>22.8574395777155</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.04846302324499</v>
-      </c>
-      <c r="K19" t="n">
-        <v>46.0344544357229</v>
-      </c>
-      <c r="L19" t="n">
-        <v>182.068573751461</v>
-      </c>
-      <c r="M19" t="n">
-        <v>24.8904249913683</v>
-      </c>
-      <c r="N19" t="n">
-        <v>46.8355243156327</v>
-      </c>
-      <c r="O19" t="n">
-        <v>473.85775159534</v>
-      </c>
-      <c r="P19" t="n">
-        <v>82.0750238042973</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>134.965499443953</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.63623142946762</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5108.59519803815</v>
-      </c>
-      <c r="E20" t="n">
-        <v>49.7925518263994</v>
-      </c>
-      <c r="F20" t="n">
-        <v>85.87334968205541</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1594.06897829992</v>
-      </c>
-      <c r="H20" t="n">
-        <v>662.293193418689</v>
-      </c>
-      <c r="I20" t="n">
-        <v>21.9487296472668</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.35054594513673</v>
-      </c>
-      <c r="K20" t="n">
-        <v>45.948554514341</v>
-      </c>
-      <c r="L20" t="n">
-        <v>184.446045913036</v>
-      </c>
-      <c r="M20" t="n">
-        <v>24.4759558285095</v>
-      </c>
-      <c r="N20" t="n">
-        <v>46.412560869176</v>
-      </c>
-      <c r="O20" t="n">
-        <v>468.99837449751</v>
-      </c>
-      <c r="P20" t="n">
-        <v>85.7123072224763</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>136.124328624857</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.73202888307186</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5330.10452887419</v>
-      </c>
-      <c r="E21" t="n">
-        <v>39.4381008136498</v>
-      </c>
-      <c r="F21" t="n">
-        <v>88.9031529005608</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1665.29179599399</v>
-      </c>
-      <c r="H21" t="n">
-        <v>707.1017199421771</v>
-      </c>
-      <c r="I21" t="n">
-        <v>20.0828985363116</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.18330809919889</v>
-      </c>
-      <c r="K21" t="n">
-        <v>45.9574038352434</v>
-      </c>
-      <c r="L21" t="n">
-        <v>196</v>
-      </c>
-      <c r="M21" t="n">
-        <v>24.8125927763906</v>
-      </c>
-      <c r="N21" t="n">
-        <v>38.3673992652474</v>
-      </c>
-      <c r="O21" t="n">
-        <v>471.565121100594</v>
-      </c>
-      <c r="P21" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>138.026057685494</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.76555179916792</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5512.762778322</v>
-      </c>
-      <c r="E22" t="n">
-        <v>32.5412798525973</v>
-      </c>
-      <c r="F22" t="n">
-        <v>90.005192289703</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1697.05070579524</v>
-      </c>
-      <c r="H22" t="n">
-        <v>754.565063985543</v>
-      </c>
-      <c r="I22" t="n">
-        <v>18.5548823683651</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.18857574726809</v>
-      </c>
-      <c r="K22" t="n">
-        <v>46.3771981134748</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>25.4156581295443</v>
-      </c>
-      <c r="N22" t="n">
-        <v>37.3770302195481</v>
-      </c>
-      <c r="O22" t="n">
-        <v>474.446545469128</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+        <v>483.479775925499</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
